--- a/DATA_goal/Junction_Flooding_161.xlsx
+++ b/DATA_goal/Junction_Flooding_161.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41593.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.95</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.18</v>
+        <v>0.32</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.28</v>
+        <v>2.23</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.74</v>
+        <v>2.27</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>117.35</v>
+        <v>11.74</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.56</v>
+        <v>2.26</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.27</v>
+        <v>1.43</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.47</v>
+        <v>0.25</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.19</v>
+        <v>2.02</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.81</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41593.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.24</v>
+        <v>0.72</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.06</v>
+        <v>2.21</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.84</v>
+        <v>2.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.31</v>
+        <v>0.73</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>113.99</v>
+        <v>11.4</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.3</v>
+        <v>2.23</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>15.29</v>
+        <v>1.53</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>27.32</v>
+        <v>2.73</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.91</v>
+        <v>0.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41593.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.25</v>
+        <v>1.63</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>1.29</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>28.77</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>48.46</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>12.86</v>
-      </c>
       <c r="P4" s="4" t="n">
-        <v>18.13</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>188.38</v>
+        <v>18.84</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>35.92</v>
+        <v>3.59</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.94</v>
+        <v>2.39</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.16</v>
+        <v>2.42</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.07</v>
+        <v>1.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.02</v>
+        <v>4.4</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.84</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41593.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.29</v>
+        <v>3.03</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.48</v>
+        <v>2.45</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>43.55</v>
+        <v>4.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.56</v>
+        <v>0.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.8</v>
+        <v>1.08</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.35</v>
+        <v>0.34</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.64</v>
+        <v>15.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.53</v>
+        <v>3.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.38</v>
+        <v>2.04</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.28</v>
+        <v>2.13</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.95</v>
+        <v>0.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.62</v>
+        <v>3.96</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41593.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>34.06</v>
+        <v>3.41</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>27.71</v>
+        <v>2.77</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.14</v>
+        <v>1.21</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>47.94</v>
+        <v>4.79</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>18.92</v>
+        <v>1.89</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>13.65</v>
+        <v>1.36</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.37</v>
+        <v>1.74</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>179.23</v>
+        <v>17.92</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>34.28</v>
+        <v>3.43</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>22.98</v>
+        <v>2.3</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>12.07</v>
+        <v>1.21</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>23.46</v>
+        <v>2.35</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>10.43</v>
+        <v>1.04</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>43.51</v>
+        <v>4.35</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41593.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>6.45</v>
+        <v>0.64</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>19.01</v>
+        <v>1.9</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>29.51</v>
+        <v>2.95</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>10.55</v>
+        <v>1.05</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>7.61</v>
+        <v>0.76</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>8.17</v>
+        <v>0.82</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>6.84</v>
+        <v>0.68</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>9.67</v>
+        <v>0.97</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>96.84</v>
+        <v>9.68</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>6.32</v>
+        <v>0.63</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>14.15</v>
+        <v>1.42</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>26.96</v>
+        <v>2.7</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41593.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>1.85</v>
+        <v>0.18</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>4.34</v>
+        <v>0.43</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>3.1</v>
+        <v>0.31</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>23.63</v>
+        <v>2.36</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41593.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>39.08</v>
+        <v>3.91</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>32.04</v>
+        <v>3.2</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>50.2</v>
+        <v>5.02</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>21.72</v>
+        <v>2.17</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>15.67</v>
+        <v>1.57</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>206.68</v>
+        <v>20.67</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>39.18</v>
+        <v>3.92</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>26.39</v>
+        <v>2.64</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>25.14</v>
+        <v>2.51</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>45.27</v>
+        <v>4.53</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.32</v>
+        <v>0.73</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41593.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>18.39</v>
+        <v>1.84</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>28.9</v>
+        <v>2.89</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>9.4</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AD10" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AE10" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF10" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG10" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="S10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>93.41</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>26.51</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>3.41</v>
-      </c>
       <c r="AH10" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_161.xlsx
+++ b/DATA_goal/Junction_Flooding_161.xlsx
@@ -448,29 +448,29 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44842.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.88</v>
+        <v>28.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.28</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.12</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44842.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.36</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.71</v>
+        <v>27.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.2</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.6</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.71</v>
+        <v>37.07</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.57</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.68</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.15</v>
+        <v>141.46</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.74</v>
+        <v>27.35</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.8</v>
+        <v>17.98</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.32</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.84</v>
+        <v>18.43</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.25</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.42</v>
+        <v>34.15</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44842.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D4" s="4" t="n">
         <v>1.14</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="E4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.08</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.99</v>
+        <v>19.89</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.9</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.56</v>
+        <v>35.58</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.05</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.85</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>13</v>
+        <v>130.02</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.26</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.67</v>
+        <v>16.72</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.28</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.46</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.26</v>
+        <v>32.57</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44842.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.3</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.34</v>
+        <v>33.44</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.7</v>
+        <v>27.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.96</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.61</v>
+        <v>46.12</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.28</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.26</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.58</v>
+        <v>175.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.36</v>
+        <v>33.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.25</v>
+        <v>22.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.4</v>
+        <v>14.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.2</v>
+        <v>41.97</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_161.xlsx
+++ b/DATA_goal/Junction_Flooding_161.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44842.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.51</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.83</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.49</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.24</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.57</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.47</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.33</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.42</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.12</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.77</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.57</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.81</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.9</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.69</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
@@ -759,31 +759,31 @@
         <v>44842.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.36</v>
+        <v>12.357</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.82</v>
+        <v>8.816000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.62</v>
+        <v>1.625</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.13</v>
+        <v>27.127</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>21.2</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.6</v>
+        <v>9.602</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>37.07</v>
+        <v>37.074</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.12</v>
+        <v>15.125</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.44</v>
+        <v>6.438</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>9.34</v>
@@ -792,46 +792,46 @@
         <v>10.81</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.57</v>
+        <v>11.571</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>3.14</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.775</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.68</v>
+        <v>13.684</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>8.606</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.36</v>
+        <v>1.357</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.9</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>141.46</v>
+        <v>141.462</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.35</v>
+        <v>27.355</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.98</v>
+        <v>17.982</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.32</v>
+        <v>9.324</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.89</v>
+        <v>1.891</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.43</v>
+        <v>18.432</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>7.97</v>
@@ -843,19 +843,19 @@
         <v>8.539999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.24</v>
+        <v>11.238</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>34.15</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.91</v>
+        <v>4.912</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.28</v>
+        <v>11.281</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44842.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.42</v>
+        <v>11.418</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.32</v>
+        <v>8.315</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.14</v>
+        <v>1.137</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>25.08</v>
+        <v>25.076</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>19.89</v>
+        <v>19.892</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.9</v>
+        <v>8.904</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>35.58</v>
+        <v>35.582</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.05</v>
+        <v>6.045</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.794</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.026</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.72</v>
+        <v>10.723</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.9</v>
+        <v>2.899</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>12.71</v>
+        <v>12.707</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.85</v>
+        <v>7.847</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.927</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>130.02</v>
+        <v>130.015</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.26</v>
+        <v>25.256</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.72</v>
+        <v>16.723</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>8.721</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.59</v>
+        <v>1.586</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.28</v>
+        <v>17.283</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.64</v>
+        <v>6.642</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>7.81</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.46</v>
+        <v>10.465</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.57</v>
+        <v>32.565</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.58</v>
+        <v>4.578</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44842.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.27</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.47</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_161.xlsx
+++ b/DATA_goal/Junction_Flooding_161.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -452,20 +452,20 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -967,103 +967,207 @@
         <v>44842.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.28</v>
+        <v>15.278</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.3</v>
+        <v>11.304</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.44</v>
+        <v>33.445</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.01</v>
+        <v>27.013</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.96</v>
+        <v>11.963</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.12</v>
+        <v>46.122</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.62</v>
+        <v>18.615</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.19</v>
+        <v>8.194000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.05</v>
+        <v>12.046</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.4</v>
+        <v>13.399</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.28</v>
+        <v>14.276</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.86</v>
+        <v>3.864</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.03</v>
+        <v>12.031</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.05</v>
+        <v>17.052</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.26</v>
+        <v>10.258</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.754</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.79</v>
+        <v>175.794</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.62</v>
+        <v>33.623</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.1</v>
+        <v>11.105</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.48</v>
+        <v>22.482</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.78</v>
+        <v>11.776</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.88</v>
+        <v>1.881</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.54</v>
+        <v>22.542</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.81</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.75</v>
+        <v>8.750999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>10.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.04</v>
+        <v>14.038</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.97</v>
+        <v>41.974</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.2</v>
+        <v>6.197</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.88</v>
+        <v>13.884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44842.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>39.27</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>141.47</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>35.83</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_161.xlsx
+++ b/DATA_goal/Junction_Flooding_161.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -452,20 +452,20 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -967,207 +967,103 @@
         <v>44842.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.278</v>
+        <v>15.28</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.304</v>
+        <v>11.3</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>33.445</v>
+        <v>33.44</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.013</v>
+        <v>27.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.963</v>
+        <v>11.96</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.122</v>
+        <v>46.12</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.615</v>
+        <v>18.62</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.194000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.046</v>
+        <v>12.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.399</v>
+        <v>13.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.276</v>
+        <v>14.28</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.864</v>
+        <v>3.86</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.031</v>
+        <v>12.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.052</v>
+        <v>17.05</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.258</v>
+        <v>10.26</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>175.794</v>
+        <v>175.79</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>33.623</v>
+        <v>33.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.105</v>
+        <v>11.1</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.482</v>
+        <v>22.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.776</v>
+        <v>11.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.881</v>
+        <v>1.88</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.542</v>
+        <v>22.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.808999999999999</v>
+        <v>9.81</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.750999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="AC5" s="4" t="n">
         <v>10.29</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>14.038</v>
+        <v>14.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.974</v>
+        <v>41.97</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.197</v>
+        <v>6.2</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.884</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44842.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.27</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.47</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.38</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.95</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.83</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>
